--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_8_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>238372.1657568595</v>
+        <v>232168.3759871638</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9167573.323130395</v>
+        <v>9421250.678764112</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22176453.17582963</v>
+        <v>21957169.6748917</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3917240.709608862</v>
+        <v>3986621.739805047</v>
       </c>
     </row>
     <row r="11">
@@ -2081,7 +2081,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2096,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,10 +2135,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>12.81932771898007</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2160,13 +2160,13 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>12.81932771898006</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2220,10 +2220,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2245,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>12.81932771898006</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2281,10 +2281,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2318,7 +2318,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>12.81932771898006</v>
       </c>
     </row>
     <row r="24">
@@ -2409,10 +2409,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>12.81932771898006</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2451,10 +2451,10 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2530,19 +2530,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>12.81932771898007</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
     </row>
     <row r="26">
@@ -2558,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>12.81932771898007</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2567,10 +2567,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2637,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2694,13 +2694,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>12.81932771898007</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2764,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>12.81932771898007</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2807,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>12.81932771898006</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2855,10 +2855,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
     </row>
     <row r="30">
@@ -2922,16 +2922,16 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>12.81932771898007</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2992,16 +2992,16 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>12.81932771898006</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3074,7 +3074,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>12.81932771898007</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
     </row>
     <row r="33">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3168,13 +3168,13 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>12.81932771898006</v>
       </c>
     </row>
     <row r="34">
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>12.81932771898006</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -3266,10 +3266,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3317,10 +3317,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>12.81932771898007</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3390,22 +3390,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>12.81932771898006</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3433,13 +3433,13 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3490,7 +3490,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>12.81932771898007</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>12.81932771898007</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3509,10 +3509,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
     </row>
     <row r="39">
@@ -3597,10 +3597,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>12.81932771898006</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3642,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3661,13 +3661,13 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>12.81932771898007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3797,16 +3797,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>12.81932771898007</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>12.81932771898007</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3882,10 +3882,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
     </row>
     <row r="43">
@@ -3904,13 +3904,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>12.81932771898007</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>14.99081238709068</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>29.39945730283804</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>43.8081022185854</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>45.26793125657512</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>14.1131508204443</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>14.1131508204443</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>14.99081238709068</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>29.39945730283804</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>43.8081022185854</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>43.8081022185854</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>15.57297985843402</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>15.57297985843402</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>29.39945730283804</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>43.8081022185854</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>14.99081238709068</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>14.99081238709068</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>14.99081238709068</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>29.39945730283804</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>43.8081022185854</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>14.1131508204443</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>15.57297985843402</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>29.98162477418138</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>44.39026968992874</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>44.39026968992874</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>15.57297985843402</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>29.39945730283804</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>43.8081022185854</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>45.26793125657512</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>45.26793125657512</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>15.57297985843402</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>29.98162477418138</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>44.39026968992874</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>15.57297985843402</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>29.39945730283804</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>43.8081022185854</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>45.26793125657512</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>15.57297985843402</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>29.98162477418138</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>44.39026968992874</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>45.26793125657512</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>45.26793125657512</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>45.26793125657512</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>45.26793125657512</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>45.26793125657512</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>45.26793125657512</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>14.1131508204443</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>14.1131508204443</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>14.1131508204443</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>14.1131508204443</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>14.1131508204443</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>14.99081238709068</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>29.39945730283804</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>29.39945730283804</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>43.8081022185854</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>15.57297985843402</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>29.98162477418138</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>44.39026968992874</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>44.39026968992874</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>45.26793125657512</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>15.57297985843402</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>29.98162477418138</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>44.39026968992874</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>15.57297985843402</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>29.39945730283804</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>29.39945730283804</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>29.39945730283804</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>43.8081022185854</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>45.26793125657512</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>45.26793125657512</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>45.26793125657512</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>45.26793125657512</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>45.26793125657512</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>14.99081238709068</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>29.39945730283804</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>29.39945730283804</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>43.8081022185854</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>14.1131508204443</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>14.1131508204443</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>14.1131508204443</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>14.1131508204443</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>14.1131508204443</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>15.57297985843402</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>29.98162477418138</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>44.39026968992874</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>44.39026968992874</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>14.1131508204443</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>14.1131508204443</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>14.1131508204443</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>14.1131508204443</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>14.1131508204443</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>14.1131508204443</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>14.99081238709068</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>29.39945730283804</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>43.8081022185854</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>45.26793125657512</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>15.57297985843402</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>29.39945730283804</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>43.8081022185854</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>14.1131508204443</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>45.26793125657512</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.26793125657512</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>45.26793125657512</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>45.26793125657512</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>15.57297985843402</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>29.98162477418138</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>44.39026968992874</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>45.26793125657512</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>15.57297985843402</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>15.57297985843402</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>15.57297985843402</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>15.57297985843402</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>29.39945730283804</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>43.8081022185854</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>15.57297985843402</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>15.57297985843402</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>15.57297985843402</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>29.39945730283804</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>43.8081022185854</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>28.81434959174045</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>15.57297985843402</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>29.98162477418138</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>44.39026968992874</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>15.57297985843402</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>29.98162477418138</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>44.39026968992874</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>44.39026968992874</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>15.57297985843402</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>29.98162477418138</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>44.39026968992874</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>45.26793125657512</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>45.26793125657512</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>45.26793125657512</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>30.56673248527896</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>15.86553371398281</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1.164334942686655</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>14.99081238709068</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>29.39945730283804</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>43.8081022185854</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>58.21674713433276</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>43.51554836303661</v>
       </c>
     </row>
     <row r="44">
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>218.2111409464629</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>233.4357089658653</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>227.7528737187178</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>226.7777408199137</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>227.6097508526263</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>229.1091522321465</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>136.5653954824675</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>136.8385818314783</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>140.1317786452013</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>129.2864630672354</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>140.7160931202018</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>132.4654202195568</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>138.9730561082392</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,16 +8614,16 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>133.8997196622861</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>137.8872852940284</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>126.6717389884799</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>137.5201250048898</v>
       </c>
       <c r="P10" t="n">
         <v>135.0065633140411</v>
@@ -8687,28 +8687,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>100.9387195582597</v>
+        <v>92.06191329280011</v>
       </c>
       <c r="K11" t="n">
-        <v>100.0299464227919</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L11" t="n">
-        <v>86.82148686318189</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M11" t="n">
-        <v>64.61630209323866</v>
+        <v>46.25150133729363</v>
       </c>
       <c r="N11" t="n">
-        <v>61.00144891149961</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O11" t="n">
-        <v>71.07189926570237</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P11" t="n">
-        <v>95.50771753390021</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q11" t="n">
-        <v>120.3816583481039</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8766,28 +8766,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>79.12633608862856</v>
+        <v>73.83937108913167</v>
       </c>
       <c r="K12" t="n">
-        <v>56.29524403393702</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L12" t="n">
-        <v>28.90545725697471</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M12" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>22.44423757443683</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P12" t="n">
-        <v>37.54182911310821</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q12" t="n">
-        <v>75.5191492782957</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8848,22 +8848,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>79.82491575659759</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L13" t="n">
-        <v>71.94053294496764</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M13" t="n">
-        <v>72.56001021962936</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N13" t="n">
-        <v>62.89780050171086</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O13" t="n">
-        <v>78.61457070130248</v>
+        <v>71.98338581476828</v>
       </c>
       <c r="P13" t="n">
-        <v>86.52286261917671</v>
+        <v>80.84873837615825</v>
       </c>
       <c r="Q13" t="n">
         <v>65.34295837775146</v>
@@ -8924,28 +8924,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>100.9387195582597</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K14" t="n">
-        <v>100.0299464227919</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L14" t="n">
-        <v>86.82148686318189</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M14" t="n">
-        <v>64.61630209323866</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N14" t="n">
-        <v>61.00144891149961</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O14" t="n">
-        <v>71.07189926570237</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P14" t="n">
-        <v>95.50771753390021</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q14" t="n">
-        <v>120.3816583481039</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>79.12633608862856</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K15" t="n">
-        <v>56.29524403393702</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L15" t="n">
-        <v>28.90545725697471</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M15" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>22.44423757443683</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P15" t="n">
-        <v>37.54182911310821</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q15" t="n">
-        <v>75.5191492782957</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9085,22 +9085,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>79.82491575659759</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L16" t="n">
-        <v>71.94053294496764</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M16" t="n">
-        <v>72.56001021962936</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N16" t="n">
-        <v>62.89780050171086</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O16" t="n">
-        <v>78.61457070130248</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P16" t="n">
-        <v>86.52286261917671</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q16" t="n">
         <v>65.34295837775146</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>100.9387195582597</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K17" t="n">
-        <v>100.0299464227919</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L17" t="n">
-        <v>86.82148686318189</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M17" t="n">
-        <v>64.61630209323866</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N17" t="n">
-        <v>61.00144891149961</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O17" t="n">
-        <v>71.07189926570237</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P17" t="n">
-        <v>95.50771753390021</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q17" t="n">
-        <v>120.3816583481039</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>79.12633608862856</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K18" t="n">
-        <v>56.29524403393702</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L18" t="n">
-        <v>28.90545725697471</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M18" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>22.44423757443683</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P18" t="n">
-        <v>37.54182911310821</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q18" t="n">
-        <v>75.5191492782957</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9322,22 +9322,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>79.82491575659759</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L19" t="n">
-        <v>71.94053294496764</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M19" t="n">
-        <v>72.56001021962936</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N19" t="n">
-        <v>62.89780050171086</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O19" t="n">
-        <v>78.61457070130248</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P19" t="n">
-        <v>86.52286261917671</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q19" t="n">
         <v>65.34295837775146</v>
@@ -9398,28 +9398,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>100.9387195582597</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K20" t="n">
-        <v>100.0299464227919</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L20" t="n">
-        <v>86.82148686318189</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M20" t="n">
-        <v>64.61630209323866</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N20" t="n">
-        <v>61.00144891149961</v>
+        <v>56.3056253122467</v>
       </c>
       <c r="O20" t="n">
-        <v>71.07189926570237</v>
+        <v>68.00412411571412</v>
       </c>
       <c r="P20" t="n">
-        <v>95.50771753390021</v>
+        <v>95.0219675056785</v>
       </c>
       <c r="Q20" t="n">
-        <v>120.3816583481039</v>
+        <v>123.6414789395588</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9477,28 +9477,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>79.12633608862856</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K21" t="n">
-        <v>56.29524403393702</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L21" t="n">
-        <v>28.90545725697471</v>
+        <v>30.72122227697252</v>
       </c>
       <c r="M21" t="n">
-        <v>14.17891314335149</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>22.44423757443683</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P21" t="n">
-        <v>37.54182911310821</v>
+        <v>41.41016648635321</v>
       </c>
       <c r="Q21" t="n">
-        <v>75.5191492782957</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9559,22 +9559,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>79.82491575659759</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L22" t="n">
-        <v>71.94053294496764</v>
+        <v>79.51977776595885</v>
       </c>
       <c r="M22" t="n">
-        <v>72.56001021962936</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N22" t="n">
-        <v>62.89780050171086</v>
+        <v>69.68470501523522</v>
       </c>
       <c r="O22" t="n">
-        <v>78.61457070130248</v>
+        <v>86.53757259835149</v>
       </c>
       <c r="P22" t="n">
-        <v>86.52286261917671</v>
+        <v>95.40292515974146</v>
       </c>
       <c r="Q22" t="n">
         <v>65.34295837775146</v>
@@ -9635,28 +9635,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>100.9387195582597</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K23" t="n">
-        <v>100.0299464227919</v>
+        <v>100.6920537382406</v>
       </c>
       <c r="L23" t="n">
-        <v>86.82148686318189</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M23" t="n">
-        <v>64.61630209323866</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N23" t="n">
-        <v>61.00144891149961</v>
+        <v>56.89367326309855</v>
       </c>
       <c r="O23" t="n">
-        <v>71.07189926570237</v>
+        <v>68.00412411571412</v>
       </c>
       <c r="P23" t="n">
-        <v>95.50771753390021</v>
+        <v>95.0219675056785</v>
       </c>
       <c r="Q23" t="n">
-        <v>120.3816583481039</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>79.12633608862856</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K24" t="n">
-        <v>56.29524403393702</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L24" t="n">
-        <v>28.90545725697471</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M24" t="n">
-        <v>14.17891314335149</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>22.44423757443683</v>
+        <v>23.68418684222655</v>
       </c>
       <c r="P24" t="n">
-        <v>37.54182911310821</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q24" t="n">
-        <v>75.5191492782957</v>
+        <v>82.3420807694293</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9796,22 +9796,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>79.82491575659759</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L25" t="n">
-        <v>71.94053294496764</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M25" t="n">
-        <v>72.56001021962936</v>
+        <v>79.76009866268588</v>
       </c>
       <c r="N25" t="n">
-        <v>62.89780050171086</v>
+        <v>69.68470501523522</v>
       </c>
       <c r="O25" t="n">
-        <v>78.61457070130248</v>
+        <v>86.53757259835149</v>
       </c>
       <c r="P25" t="n">
-        <v>86.52286261917671</v>
+        <v>95.40292515974146</v>
       </c>
       <c r="Q25" t="n">
         <v>65.34295837775146</v>
@@ -9872,28 +9872,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>100.9387195582597</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K26" t="n">
-        <v>100.0299464227919</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L26" t="n">
-        <v>86.82148686318189</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M26" t="n">
-        <v>64.61630209323866</v>
+        <v>60.80568812087685</v>
       </c>
       <c r="N26" t="n">
-        <v>61.00144891149961</v>
+        <v>56.89367326309855</v>
       </c>
       <c r="O26" t="n">
-        <v>71.07189926570237</v>
+        <v>68.00412411571412</v>
       </c>
       <c r="P26" t="n">
-        <v>95.50771753390021</v>
+        <v>94.43391955482666</v>
       </c>
       <c r="Q26" t="n">
-        <v>120.3816583481039</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -9951,28 +9951,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>79.12633608862856</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K27" t="n">
-        <v>56.29524403393702</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L27" t="n">
-        <v>28.90545725697471</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M27" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>22.44423757443683</v>
+        <v>23.0961388913747</v>
       </c>
       <c r="P27" t="n">
-        <v>37.54182911310821</v>
+        <v>41.41016648635321</v>
       </c>
       <c r="Q27" t="n">
-        <v>75.5191492782957</v>
+        <v>82.93012872028115</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10033,22 +10033,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>79.82491575659759</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L28" t="n">
-        <v>71.94053294496764</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M28" t="n">
-        <v>72.56001021962936</v>
+        <v>79.76009866268588</v>
       </c>
       <c r="N28" t="n">
-        <v>62.89780050171086</v>
+        <v>70.27275296608707</v>
       </c>
       <c r="O28" t="n">
-        <v>78.61457070130248</v>
+        <v>86.53757259835149</v>
       </c>
       <c r="P28" t="n">
-        <v>86.52286261917671</v>
+        <v>94.81487720888961</v>
       </c>
       <c r="Q28" t="n">
         <v>65.34295837775146</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>100.9387195582597</v>
+        <v>106.0280521255315</v>
       </c>
       <c r="K29" t="n">
-        <v>100.0299464227919</v>
+        <v>101.2801016890925</v>
       </c>
       <c r="L29" t="n">
-        <v>86.82148686318189</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M29" t="n">
-        <v>64.61630209323866</v>
+        <v>60.80568812087685</v>
       </c>
       <c r="N29" t="n">
-        <v>61.00144891149961</v>
+        <v>56.89367326309855</v>
       </c>
       <c r="O29" t="n">
-        <v>71.07189926570237</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P29" t="n">
-        <v>95.50771753390021</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q29" t="n">
-        <v>120.3816583481039</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>79.12633608862856</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K30" t="n">
-        <v>56.29524403393702</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L30" t="n">
-        <v>28.90545725697471</v>
+        <v>31.30927022782437</v>
       </c>
       <c r="M30" t="n">
-        <v>14.17891314335149</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>22.44423757443683</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P30" t="n">
-        <v>37.54182911310821</v>
+        <v>40.82211853550135</v>
       </c>
       <c r="Q30" t="n">
-        <v>75.5191492782957</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10270,22 +10270,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>79.82491575659759</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L31" t="n">
-        <v>71.94053294496764</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M31" t="n">
-        <v>72.56001021962936</v>
+        <v>79.76009866268588</v>
       </c>
       <c r="N31" t="n">
-        <v>62.89780050171086</v>
+        <v>70.27275296608707</v>
       </c>
       <c r="O31" t="n">
-        <v>78.61457070130248</v>
+        <v>86.53757259835149</v>
       </c>
       <c r="P31" t="n">
-        <v>86.52286261917671</v>
+        <v>94.81487720888961</v>
       </c>
       <c r="Q31" t="n">
         <v>65.34295837775146</v>
@@ -10346,28 +10346,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>100.9387195582597</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K32" t="n">
-        <v>100.0299464227919</v>
+        <v>101.2801016890925</v>
       </c>
       <c r="L32" t="n">
-        <v>86.82148686318189</v>
+        <v>84.28279817578458</v>
       </c>
       <c r="M32" t="n">
-        <v>64.61630209323866</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N32" t="n">
-        <v>61.00144891149961</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O32" t="n">
-        <v>71.07189926570237</v>
+        <v>68.00412411571412</v>
       </c>
       <c r="P32" t="n">
-        <v>95.50771753390021</v>
+        <v>95.0219675056785</v>
       </c>
       <c r="Q32" t="n">
-        <v>120.3816583481039</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>79.12633608862856</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K33" t="n">
-        <v>56.29524403393702</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L33" t="n">
-        <v>28.90545725697471</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M33" t="n">
-        <v>14.17891314335149</v>
+        <v>13.96613883273134</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>22.44423757443683</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P33" t="n">
-        <v>37.54182911310821</v>
+        <v>41.41016648635321</v>
       </c>
       <c r="Q33" t="n">
-        <v>75.5191492782957</v>
+        <v>82.93012872028115</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10507,22 +10507,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>79.82491575659759</v>
+        <v>88.9284630463612</v>
       </c>
       <c r="L34" t="n">
-        <v>71.94053294496764</v>
+        <v>79.51977776595885</v>
       </c>
       <c r="M34" t="n">
-        <v>72.56001021962936</v>
+        <v>79.76009866268588</v>
       </c>
       <c r="N34" t="n">
-        <v>62.89780050171086</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O34" t="n">
-        <v>78.61457070130248</v>
+        <v>85.94952464749964</v>
       </c>
       <c r="P34" t="n">
-        <v>86.52286261917671</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q34" t="n">
         <v>65.34295837775146</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>100.9387195582597</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K35" t="n">
-        <v>100.0299464227919</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L35" t="n">
-        <v>86.82148686318189</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M35" t="n">
-        <v>64.61630209323866</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N35" t="n">
-        <v>61.00144891149961</v>
+        <v>56.3056253122467</v>
       </c>
       <c r="O35" t="n">
-        <v>71.07189926570237</v>
+        <v>68.00412411571412</v>
       </c>
       <c r="P35" t="n">
-        <v>95.50771753390021</v>
+        <v>95.0219675056785</v>
       </c>
       <c r="Q35" t="n">
-        <v>120.3816583481039</v>
+        <v>123.6414789395588</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10662,28 +10662,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>79.12633608862856</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K36" t="n">
-        <v>56.29524403393702</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L36" t="n">
-        <v>28.90545725697471</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M36" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>22.44423757443683</v>
+        <v>23.0961388913747</v>
       </c>
       <c r="P36" t="n">
-        <v>37.54182911310821</v>
+        <v>41.41016648635321</v>
       </c>
       <c r="Q36" t="n">
-        <v>75.5191492782957</v>
+        <v>82.93012872028115</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10744,22 +10744,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>79.82491575659759</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L37" t="n">
-        <v>71.94053294496764</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M37" t="n">
-        <v>72.56001021962936</v>
+        <v>79.76009866268588</v>
       </c>
       <c r="N37" t="n">
-        <v>62.89780050171086</v>
+        <v>70.27275296608707</v>
       </c>
       <c r="O37" t="n">
-        <v>78.61457070130248</v>
+        <v>86.53757259835149</v>
       </c>
       <c r="P37" t="n">
-        <v>86.52286261917671</v>
+        <v>94.81487720888961</v>
       </c>
       <c r="Q37" t="n">
         <v>65.34295837775146</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>100.9387195582597</v>
+        <v>106.6161000763833</v>
       </c>
       <c r="K38" t="n">
-        <v>100.0299464227919</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L38" t="n">
-        <v>86.82148686318189</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M38" t="n">
-        <v>64.61630209323866</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N38" t="n">
-        <v>61.00144891149961</v>
+        <v>56.3056253122467</v>
       </c>
       <c r="O38" t="n">
-        <v>71.07189926570237</v>
+        <v>68.00412411571412</v>
       </c>
       <c r="P38" t="n">
-        <v>95.50771753390021</v>
+        <v>95.0219675056785</v>
       </c>
       <c r="Q38" t="n">
-        <v>120.3816583481039</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>79.12633608862856</v>
+        <v>88.39355787271488</v>
       </c>
       <c r="K39" t="n">
-        <v>56.29524403393702</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L39" t="n">
-        <v>28.90545725697471</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M39" t="n">
-        <v>14.17891314335149</v>
+        <v>13.96613883273134</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>22.44423757443683</v>
+        <v>23.68418684222655</v>
       </c>
       <c r="P39" t="n">
-        <v>37.54182911310821</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q39" t="n">
-        <v>75.5191492782957</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -10981,22 +10981,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>79.82491575659759</v>
+        <v>88.9284630463612</v>
       </c>
       <c r="L40" t="n">
-        <v>71.94053294496764</v>
+        <v>79.51977776595885</v>
       </c>
       <c r="M40" t="n">
-        <v>72.56001021962936</v>
+        <v>79.76009866268588</v>
       </c>
       <c r="N40" t="n">
-        <v>62.89780050171086</v>
+        <v>69.68470501523522</v>
       </c>
       <c r="O40" t="n">
-        <v>78.61457070130248</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P40" t="n">
-        <v>86.52286261917671</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q40" t="n">
         <v>65.34295837775146</v>
@@ -11057,28 +11057,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>100.9387195582597</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K41" t="n">
-        <v>100.0299464227919</v>
+        <v>101.2801016890925</v>
       </c>
       <c r="L41" t="n">
-        <v>86.82148686318189</v>
+        <v>84.87084612663642</v>
       </c>
       <c r="M41" t="n">
-        <v>64.61630209323866</v>
+        <v>60.80568812087685</v>
       </c>
       <c r="N41" t="n">
-        <v>61.00144891149961</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O41" t="n">
-        <v>71.07189926570237</v>
+        <v>67.41607616486228</v>
       </c>
       <c r="P41" t="n">
-        <v>95.50771753390021</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q41" t="n">
-        <v>120.3816583481039</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,28 +11136,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>79.12633608862856</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K42" t="n">
-        <v>56.29524403393702</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L42" t="n">
-        <v>28.90545725697471</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M42" t="n">
-        <v>14.17891314335149</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>22.44423757443683</v>
+        <v>23.68418684222655</v>
       </c>
       <c r="P42" t="n">
-        <v>37.54182911310821</v>
+        <v>40.82211853550135</v>
       </c>
       <c r="Q42" t="n">
-        <v>75.5191492782957</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11218,22 +11218,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>79.82491575659759</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L43" t="n">
-        <v>71.94053294496764</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M43" t="n">
-        <v>72.56001021962936</v>
+        <v>79.17205071183403</v>
       </c>
       <c r="N43" t="n">
-        <v>62.89780050171086</v>
+        <v>70.27275296608707</v>
       </c>
       <c r="O43" t="n">
-        <v>78.61457070130248</v>
+        <v>86.53757259835149</v>
       </c>
       <c r="P43" t="n">
-        <v>86.52286261917671</v>
+        <v>95.40292515974146</v>
       </c>
       <c r="Q43" t="n">
         <v>65.34295837775146</v>
@@ -11294,28 +11294,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>100.9387195582597</v>
+        <v>92.06191329280013</v>
       </c>
       <c r="K44" t="n">
-        <v>100.0299464227919</v>
+        <v>86.72591490550931</v>
       </c>
       <c r="L44" t="n">
-        <v>86.82148686318189</v>
+        <v>70.31665934305323</v>
       </c>
       <c r="M44" t="n">
-        <v>64.61630209323866</v>
+        <v>46.25150133729366</v>
       </c>
       <c r="N44" t="n">
-        <v>61.00144891149961</v>
+        <v>42.33948647951536</v>
       </c>
       <c r="O44" t="n">
-        <v>71.07189926570237</v>
+        <v>53.44993733213093</v>
       </c>
       <c r="P44" t="n">
-        <v>95.50771753390021</v>
+        <v>80.46778072209531</v>
       </c>
       <c r="Q44" t="n">
-        <v>120.3816583481039</v>
+        <v>109.0872921559756</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11373,28 +11373,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>79.12633608862856</v>
+        <v>73.83937108913169</v>
       </c>
       <c r="K45" t="n">
-        <v>56.29524403393702</v>
+        <v>47.25897875440141</v>
       </c>
       <c r="L45" t="n">
-        <v>28.90545725697471</v>
+        <v>16.75508344424118</v>
       </c>
       <c r="M45" t="n">
-        <v>14.17891314335149</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>22.44423757443683</v>
+        <v>9.130000058643361</v>
       </c>
       <c r="P45" t="n">
-        <v>37.54182911310821</v>
+        <v>26.85597970277001</v>
       </c>
       <c r="Q45" t="n">
-        <v>75.5191492782957</v>
+        <v>68.37594193669796</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -11455,22 +11455,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>79.82491575659759</v>
+        <v>74.37427626277801</v>
       </c>
       <c r="L46" t="n">
-        <v>71.94053294496764</v>
+        <v>64.96559098237566</v>
       </c>
       <c r="M46" t="n">
-        <v>72.56001021962936</v>
+        <v>65.20591187910269</v>
       </c>
       <c r="N46" t="n">
-        <v>62.89780050171086</v>
+        <v>55.71856618250388</v>
       </c>
       <c r="O46" t="n">
-        <v>78.61457070130248</v>
+        <v>71.9833858147683</v>
       </c>
       <c r="P46" t="n">
-        <v>86.52286261917671</v>
+        <v>80.84873837615827</v>
       </c>
       <c r="Q46" t="n">
         <v>65.34295837775146</v>
@@ -23033,16 +23033,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>415.2879682170718</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>339.3235460419765</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>209.9064962068211</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>10.69576364311372</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,19 +23063,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>8.395781178313161</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>148.9413660216818</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>208.6835142066282</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>223.0311969618593</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>251.3444713639914</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23112,16 +23112,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>137.3356148920818</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>112.1591249337519</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>89.12455904281175</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,16 +23145,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>99.6672001609758</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>171.5363898835276</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>200.1328769967189</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>225.9408621947163</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23191,19 +23191,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>167.9843543597988</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>162.1682702466266</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>155.2512431493756</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>92.89079271141465</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>21.49978743611831</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23218,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>1.920177260816417</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>85.60728995481479</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>176.9955073465141</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>223.9011423785076</v>
       </c>
       <c r="T10" t="n">
-        <v>227.9455894282815</v>
+        <v>227.9172826158254</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3190293564909</v>
+        <v>286.3186679929276</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23270,13 +23270,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>414.3588981658848</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H11" t="n">
-        <v>329.8087073802583</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I11" t="n">
-        <v>174.0885230584365</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23303,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>90.58066941881005</v>
+        <v>84.01082088999308</v>
       </c>
       <c r="S11" t="n">
-        <v>187.5123304152058</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T11" t="n">
-        <v>218.9641928127885</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23349,13 +23349,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H12" t="n">
-        <v>107.3582211803319</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I12" t="n">
-        <v>72.00962059397116</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,16 +23382,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>68.80362453272261</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S12" t="n">
-        <v>162.3030441088983</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T12" t="n">
-        <v>198.1292300623896</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U12" t="n">
-        <v>225.908158490674</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23428,16 +23428,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.5676055192152</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H13" t="n">
-        <v>158.4629941912556</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I13" t="n">
-        <v>142.7184689252781</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J13" t="n">
-        <v>63.42664968215054</v>
+        <v>60.10977774604451</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23458,19 +23458,19 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.71025749466926</v>
+        <v>46.78178798155719</v>
       </c>
       <c r="R13" t="n">
-        <v>158.2569640235438</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S13" t="n">
-        <v>216.6383466748816</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T13" t="n">
-        <v>226.1366284787861</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23507,13 +23507,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>414.3588981658848</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H14" t="n">
-        <v>329.8087073802583</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I14" t="n">
-        <v>174.0885230584365</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23540,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>90.58066941881005</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S14" t="n">
-        <v>187.5123304152058</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T14" t="n">
-        <v>218.9641928127885</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23586,13 +23586,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H15" t="n">
-        <v>107.3582211803319</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I15" t="n">
-        <v>72.00962059397116</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23619,16 +23619,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>68.80362453272261</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S15" t="n">
-        <v>162.3030441088983</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T15" t="n">
-        <v>198.1292300623896</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U15" t="n">
-        <v>225.908158490674</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23665,16 +23665,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.5676055192152</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H16" t="n">
-        <v>158.4629941912556</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I16" t="n">
-        <v>142.7184689252781</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J16" t="n">
-        <v>63.42664968215054</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,19 +23695,19 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.71025749466926</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R16" t="n">
-        <v>158.2569640235438</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S16" t="n">
-        <v>216.6383466748816</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T16" t="n">
-        <v>226.1366284787861</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,13 +23744,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.3588981658848</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H17" t="n">
-        <v>329.8087073802583</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I17" t="n">
-        <v>174.0885230584365</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,16 +23777,16 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>90.58066941881005</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S17" t="n">
-        <v>187.5123304152058</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T17" t="n">
-        <v>218.9641928127885</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23823,13 +23823,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H18" t="n">
-        <v>107.3582211803319</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I18" t="n">
-        <v>72.00962059397116</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,16 +23856,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>68.80362453272261</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S18" t="n">
-        <v>162.3030441088983</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T18" t="n">
-        <v>198.1292300623896</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U18" t="n">
-        <v>225.908158490674</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -23902,16 +23902,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.5676055192152</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H19" t="n">
-        <v>158.4629941912556</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I19" t="n">
-        <v>142.7184689252781</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J19" t="n">
-        <v>63.42664968215054</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23932,19 +23932,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.71025749466926</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R19" t="n">
-        <v>158.2569640235438</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S19" t="n">
-        <v>216.6383466748816</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T19" t="n">
-        <v>226.1366284787861</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23969,7 +23969,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>350.7187049874244</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -23981,13 +23981,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.3588981658848</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H20" t="n">
-        <v>329.8087073802583</v>
+        <v>314.1834050613518</v>
       </c>
       <c r="I20" t="n">
-        <v>174.0885230584365</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,19 +24014,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>90.58066941881005</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S20" t="n">
-        <v>187.5123304152058</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T20" t="n">
-        <v>218.9641928127885</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2701457598965</v>
+        <v>238.4424509721674</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>313.1980716865517</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24048,25 +24048,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>158.1543122047325</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>144.8257527364209</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H21" t="n">
-        <v>107.3582211803319</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I21" t="n">
-        <v>72.00962059397116</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24093,25 +24093,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>68.80362453272261</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S21" t="n">
-        <v>162.3030441088983</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T21" t="n">
-        <v>198.1292300623896</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U21" t="n">
-        <v>225.908158490674</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>237.1407963773364</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>191.2187984198943</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24133,22 +24133,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>133.6146349275891</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>167.5676055192152</v>
+        <v>152.9665039982047</v>
       </c>
       <c r="H22" t="n">
-        <v>158.4629941912556</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I22" t="n">
-        <v>142.7184689252781</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J22" t="n">
-        <v>63.42664968215054</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,19 +24169,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.71025749466926</v>
+        <v>32.22760119797401</v>
       </c>
       <c r="R22" t="n">
-        <v>158.2569640235438</v>
+        <v>141.5933200461866</v>
       </c>
       <c r="S22" t="n">
-        <v>216.6383466748816</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T22" t="n">
-        <v>226.1366284787861</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24206,7 +24206,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>350.7187049874244</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24218,13 +24218,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>414.3588981658848</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H23" t="n">
-        <v>329.8087073802583</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I23" t="n">
-        <v>174.0885230584365</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24251,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>90.58066941881005</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S23" t="n">
-        <v>187.5123304152058</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T23" t="n">
-        <v>218.9641928127885</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>334.6867819338298</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>355.1769138948858</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>373.4186109370735</v>
       </c>
     </row>
     <row r="24">
@@ -24297,13 +24297,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>136.8385185906377</v>
+        <v>122.2283721013823</v>
       </c>
       <c r="H24" t="n">
-        <v>107.3582211803319</v>
+        <v>93.99844051446492</v>
       </c>
       <c r="I24" t="n">
-        <v>72.00962059397116</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24330,19 +24330,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>68.80362453272261</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S24" t="n">
-        <v>162.3030441088983</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T24" t="n">
-        <v>198.1292300623896</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U24" t="n">
-        <v>225.908158490674</v>
+        <v>211.3502901475071</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>218.2464003658421</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -24376,16 +24376,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>167.5676055192152</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H25" t="n">
-        <v>158.4629941912556</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I25" t="n">
-        <v>142.7184689252781</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J25" t="n">
-        <v>63.42664968215054</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24406,31 +24406,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.71025749466926</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R25" t="n">
-        <v>158.2569640235438</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S25" t="n">
-        <v>216.6383466748816</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T25" t="n">
-        <v>226.1366284787861</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2959362379867</v>
+        <v>273.4740495333288</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>271.9688115530078</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>211.155468605454</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>204.0304665685116</v>
       </c>
     </row>
     <row r="26">
@@ -24446,7 +24446,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>341.8637139017029</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24455,13 +24455,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.3588981658848</v>
+        <v>399.700123022939</v>
       </c>
       <c r="H26" t="n">
-        <v>329.8087073802583</v>
+        <v>314.1834050613518</v>
       </c>
       <c r="I26" t="n">
-        <v>174.0885230584365</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,16 +24488,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>90.58066941881005</v>
+        <v>69.45663410640991</v>
       </c>
       <c r="S26" t="n">
-        <v>187.5123304152058</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T26" t="n">
-        <v>218.9641928127885</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -24525,7 +24525,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>132.8908787810556</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24534,13 +24534,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H27" t="n">
-        <v>107.3582211803319</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I27" t="n">
-        <v>72.00962059397116</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,28 +24567,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>68.80362453272261</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S27" t="n">
-        <v>162.3030441088983</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T27" t="n">
-        <v>198.1292300623896</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U27" t="n">
-        <v>225.908158490674</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>238.8756554419395</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>191.2187984198943</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>191.1285089937212</v>
       </c>
     </row>
     <row r="28">
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>165.2777933983541</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24607,22 +24607,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>131.879775862986</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>130.8668612393481</v>
       </c>
       <c r="G28" t="n">
-        <v>167.5676055192152</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H28" t="n">
-        <v>158.4629941912556</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I28" t="n">
-        <v>142.7184689252781</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J28" t="n">
-        <v>63.42664968215054</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24643,19 +24643,19 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.71025749466926</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R28" t="n">
-        <v>158.2569640235438</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S28" t="n">
-        <v>216.6383466748816</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T28" t="n">
-        <v>226.1366284787861</v>
+        <v>213.1168468817078</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24680,7 +24680,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>350.7187049874244</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24692,13 +24692,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>414.3588981658848</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H29" t="n">
-        <v>329.8087073802583</v>
+        <v>315.918264125955</v>
       </c>
       <c r="I29" t="n">
-        <v>174.0885230584365</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,16 +24725,16 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>90.58066941881005</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S29" t="n">
-        <v>187.5123304152058</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T29" t="n">
-        <v>218.9641928127885</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24743,10 +24743,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>355.1769138948858</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>371.6837518724704</v>
       </c>
     </row>
     <row r="30">
@@ -24771,13 +24771,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H30" t="n">
-        <v>107.3582211803319</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I30" t="n">
-        <v>72.00962059397116</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,22 +24804,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>68.80362453272261</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S30" t="n">
-        <v>162.3030441088983</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T30" t="n">
-        <v>198.1292300623896</v>
+        <v>185.0843454595816</v>
       </c>
       <c r="U30" t="n">
-        <v>225.908158490674</v>
+        <v>211.3502901475071</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>218.2464003658421</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>237.1407963773364</v>
       </c>
       <c r="X30" t="n">
         <v>205.7729852034775</v>
@@ -24850,16 +24850,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.5676055192152</v>
+        <v>152.9665039982047</v>
       </c>
       <c r="H31" t="n">
-        <v>158.4629941912556</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I31" t="n">
-        <v>142.7184689252781</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J31" t="n">
-        <v>63.42664968215054</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24880,19 +24880,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.71025749466926</v>
+        <v>32.22760119797401</v>
       </c>
       <c r="R31" t="n">
-        <v>158.2569640235438</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S31" t="n">
-        <v>216.6383466748816</v>
+        <v>201.2665639672255</v>
       </c>
       <c r="T31" t="n">
-        <v>226.1366284787861</v>
+        <v>213.1168468817078</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24929,13 +24929,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.3588981658848</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H32" t="n">
-        <v>329.8087073802583</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I32" t="n">
-        <v>174.0885230584365</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24962,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>90.58066941881005</v>
+        <v>71.19149317101304</v>
       </c>
       <c r="S32" t="n">
-        <v>187.5123304152058</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T32" t="n">
-        <v>218.9641928127885</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>334.6867819338298</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>355.1769138948858</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>371.6837518724704</v>
       </c>
     </row>
     <row r="33">
@@ -24993,7 +24993,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>151.9789968662841</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -25008,13 +25008,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H33" t="n">
-        <v>107.3582211803319</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I33" t="n">
-        <v>72.00962059397116</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25041,28 +25041,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>68.80362453272261</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S33" t="n">
-        <v>162.3030441088983</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T33" t="n">
-        <v>198.1292300623896</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U33" t="n">
-        <v>225.908158490674</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>237.1407963773364</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>191.2187984198943</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>192.8633680583243</v>
       </c>
     </row>
     <row r="34">
@@ -25087,16 +25087,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>167.5676055192152</v>
+        <v>154.7013630628078</v>
       </c>
       <c r="H34" t="n">
-        <v>158.4629941912556</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I34" t="n">
-        <v>142.7184689252781</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J34" t="n">
-        <v>63.42664968215054</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25117,19 +25117,19 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>50.71025749466926</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R34" t="n">
-        <v>158.2569640235438</v>
+        <v>141.5933200461866</v>
       </c>
       <c r="S34" t="n">
-        <v>216.6383466748816</v>
+        <v>201.2665639672255</v>
       </c>
       <c r="T34" t="n">
-        <v>226.1366284787861</v>
+        <v>211.3819878171047</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25154,10 +25154,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>350.7187049874244</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>340.1288548370998</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25166,13 +25166,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.3588981658848</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H35" t="n">
-        <v>329.8087073802583</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I35" t="n">
-        <v>174.0885230584365</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,16 +25199,16 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>90.58066941881005</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S35" t="n">
-        <v>187.5123304152058</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T35" t="n">
-        <v>218.9641928127885</v>
+        <v>205.6870295506982</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2701457598965</v>
+        <v>236.7075919075643</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25245,13 +25245,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H36" t="n">
-        <v>107.3582211803319</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I36" t="n">
-        <v>72.00962059397116</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,22 +25278,22 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>68.80362453272261</v>
+        <v>50.7750272513502</v>
       </c>
       <c r="S36" t="n">
-        <v>162.3030441088983</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T36" t="n">
-        <v>198.1292300623896</v>
+        <v>183.3494863949785</v>
       </c>
       <c r="U36" t="n">
-        <v>225.908158490674</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>218.2464003658421</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>238.8756554419395</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25321,19 +25321,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>130.8668612393481</v>
       </c>
       <c r="G37" t="n">
-        <v>167.5676055192152</v>
+        <v>152.9665039982047</v>
       </c>
       <c r="H37" t="n">
-        <v>158.4629941912556</v>
+        <v>143.4916927421829</v>
       </c>
       <c r="I37" t="n">
-        <v>142.7184689252781</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J37" t="n">
-        <v>63.42664968215054</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25354,19 +25354,19 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>50.71025749466926</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R37" t="n">
-        <v>158.2569640235438</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S37" t="n">
-        <v>216.6383466748816</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T37" t="n">
-        <v>226.1366284787861</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>205.7653256331147</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25388,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>369.9145139445005</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25397,19 +25397,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>367.3761832886786</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>392.3218589581282</v>
       </c>
       <c r="G38" t="n">
-        <v>414.3588981658848</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H38" t="n">
-        <v>329.8087073802583</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I38" t="n">
-        <v>174.0885230584365</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25436,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>90.58066941881005</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S38" t="n">
-        <v>187.5123304152058</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T38" t="n">
-        <v>218.9641928127885</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25457,7 +25457,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>371.6837518724704</v>
       </c>
     </row>
     <row r="39">
@@ -25482,13 +25482,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H39" t="n">
-        <v>107.3582211803319</v>
+        <v>93.99844051446492</v>
       </c>
       <c r="I39" t="n">
-        <v>72.00962059397116</v>
+        <v>55.52875096158567</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,22 +25515,22 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>68.80362453272261</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S39" t="n">
-        <v>162.3030441088983</v>
+        <v>146.7094303361842</v>
       </c>
       <c r="T39" t="n">
-        <v>198.1292300623896</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U39" t="n">
-        <v>225.908158490674</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>237.1407963773364</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25549,28 +25549,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>154.4274933796478</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>134.0612862346292</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>131.879775862986</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.5676055192152</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H40" t="n">
-        <v>158.4629941912556</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I40" t="n">
-        <v>142.7184689252781</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J40" t="n">
-        <v>63.42664968215054</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,19 +25591,19 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.71025749466926</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R40" t="n">
-        <v>158.2569640235438</v>
+        <v>141.5933200461866</v>
       </c>
       <c r="S40" t="n">
-        <v>216.6383466748816</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T40" t="n">
-        <v>226.1366284787861</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -25625,7 +25625,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>368.1796548798974</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -25640,13 +25640,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.3588981658848</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H41" t="n">
-        <v>329.8087073802583</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I41" t="n">
-        <v>174.0885230584365</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25673,28 +25673,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>90.58066941881005</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S41" t="n">
-        <v>187.5123304152058</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T41" t="n">
-        <v>218.9641928127885</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>313.1980716865517</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>356.911772959489</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>371.6837518724704</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25707,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>158.1543122047325</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25719,13 +25719,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H42" t="n">
-        <v>107.3582211803319</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I42" t="n">
-        <v>72.00962059397116</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25752,16 +25752,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>68.80362453272261</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S42" t="n">
-        <v>162.3030441088983</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T42" t="n">
-        <v>198.1292300623896</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U42" t="n">
-        <v>225.908158490674</v>
+        <v>213.0851492121102</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -25770,10 +25770,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>191.2187984198943</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>191.1285089937212</v>
       </c>
     </row>
     <row r="43">
@@ -25792,22 +25792,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>133.6146349275891</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>130.8668612393481</v>
       </c>
       <c r="G43" t="n">
-        <v>167.5676055192152</v>
+        <v>152.9665039982047</v>
       </c>
       <c r="H43" t="n">
-        <v>158.4629941912556</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I43" t="n">
-        <v>142.7184689252781</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J43" t="n">
-        <v>63.42664968215054</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25828,19 +25828,19 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.71025749466926</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R43" t="n">
-        <v>158.2569640235438</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S43" t="n">
-        <v>216.6383466748816</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T43" t="n">
-        <v>226.1366284787861</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2959362379867</v>
+        <v>271.7391904687257</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25877,13 +25877,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.3588981658848</v>
+        <v>414.2543098065221</v>
       </c>
       <c r="H44" t="n">
-        <v>329.8087073802583</v>
+        <v>328.737591844935</v>
       </c>
       <c r="I44" t="n">
-        <v>174.0885230584365</v>
+        <v>170.0563803341062</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,16 +25910,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>90.58066941881005</v>
+        <v>84.0108208899931</v>
       </c>
       <c r="S44" t="n">
-        <v>187.5123304152058</v>
+        <v>185.1290231762283</v>
       </c>
       <c r="T44" t="n">
-        <v>218.9641928127885</v>
+        <v>218.5063572696783</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2701457598965</v>
+        <v>251.2617786911475</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25956,13 +25956,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.8385185906377</v>
+        <v>136.7825588849655</v>
       </c>
       <c r="H45" t="n">
-        <v>107.3582211803319</v>
+        <v>106.817768233445</v>
       </c>
       <c r="I45" t="n">
-        <v>72.00962059397116</v>
+        <v>70.08293774516886</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,16 +25989,16 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>68.80362453272261</v>
+        <v>65.32921403493339</v>
       </c>
       <c r="S45" t="n">
-        <v>162.3030441088983</v>
+        <v>161.2636171197674</v>
       </c>
       <c r="T45" t="n">
-        <v>198.1292300623896</v>
+        <v>197.9036731785617</v>
       </c>
       <c r="U45" t="n">
-        <v>225.908158490674</v>
+        <v>225.9044769310903</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -26035,16 +26035,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.5676055192152</v>
+        <v>167.5206907817879</v>
       </c>
       <c r="H46" t="n">
-        <v>158.4629941912556</v>
+        <v>158.0458795257661</v>
       </c>
       <c r="I46" t="n">
-        <v>142.7184689252781</v>
+        <v>141.3076148215571</v>
       </c>
       <c r="J46" t="n">
-        <v>63.42664968215054</v>
+        <v>60.10977774604452</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,19 +26065,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.71025749466926</v>
+        <v>46.7817879815572</v>
       </c>
       <c r="R46" t="n">
-        <v>158.2569640235438</v>
+        <v>156.1475068297698</v>
       </c>
       <c r="S46" t="n">
-        <v>216.6383466748816</v>
+        <v>215.8207507508087</v>
       </c>
       <c r="T46" t="n">
-        <v>226.1366284787861</v>
+        <v>225.9361746006879</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2959362379867</v>
+        <v>286.2933772523089</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>338648.3274240561</v>
+        <v>339058.6125912942</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>338810.6490978886</v>
+        <v>338537.0517278954</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>338810.6490978886</v>
+        <v>338537.0517278954</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>338810.6490978886</v>
+        <v>338537.0517278954</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>338810.6490978886</v>
+        <v>351435.1292701267</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>338810.6490978886</v>
+        <v>351435.1292701266</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>338810.6490978886</v>
+        <v>351435.1292701265</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>338810.6490978886</v>
+        <v>351435.1292701267</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>338810.6490978886</v>
+        <v>351435.1292701268</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>338810.6490978886</v>
+        <v>351435.1292701266</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>338810.6490978886</v>
+        <v>351435.1292701267</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>338810.6490978886</v>
+        <v>351435.1292701267</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>338810.6490978886</v>
+        <v>338537.0517278954</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26317,43 @@
         <v>80630.55414858478</v>
       </c>
       <c r="D2" t="n">
-        <v>80630.55414858478</v>
+        <v>80835.13055379553</v>
       </c>
       <c r="E2" t="n">
-        <v>87500.02638886588</v>
+        <v>88162.43320227743</v>
       </c>
       <c r="F2" t="n">
-        <v>87500.02638886588</v>
+        <v>88162.43320227743</v>
       </c>
       <c r="G2" t="n">
-        <v>87500.02638886588</v>
+        <v>88162.43320227743</v>
       </c>
       <c r="H2" t="n">
-        <v>87500.02638886588</v>
+        <v>91254.81657409512</v>
       </c>
       <c r="I2" t="n">
-        <v>87500.02638886588</v>
+        <v>91254.81657409512</v>
       </c>
       <c r="J2" t="n">
-        <v>87500.02638886588</v>
+        <v>91254.81657409511</v>
       </c>
       <c r="K2" t="n">
-        <v>87500.02638886588</v>
+        <v>91254.81657409512</v>
       </c>
       <c r="L2" t="n">
-        <v>87500.02638886588</v>
+        <v>91254.81657409509</v>
       </c>
       <c r="M2" t="n">
-        <v>87500.02638886588</v>
+        <v>91254.81657409512</v>
       </c>
       <c r="N2" t="n">
-        <v>87500.02638886588</v>
+        <v>91254.81657409509</v>
       </c>
       <c r="O2" t="n">
-        <v>87500.02638886588</v>
+        <v>91254.81657409511</v>
       </c>
       <c r="P2" t="n">
-        <v>87500.02638886588</v>
+        <v>88162.43320227743</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3146.347615853227</v>
       </c>
       <c r="E3" t="n">
-        <v>188622.9869705381</v>
+        <v>206573.0116676893</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3926.850581891797</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41731.10116290394</v>
+        <v>43002.96221257857</v>
       </c>
       <c r="C4" t="n">
-        <v>41731.10116290394</v>
+        <v>43002.96221257857</v>
       </c>
       <c r="D4" t="n">
-        <v>41731.10116290394</v>
+        <v>42663.13389404375</v>
       </c>
       <c r="E4" t="n">
-        <v>17445.5225022092</v>
+        <v>15274.79665287787</v>
       </c>
       <c r="F4" t="n">
-        <v>17445.5225022092</v>
+        <v>15274.79665287787</v>
       </c>
       <c r="G4" t="n">
-        <v>17445.5225022092</v>
+        <v>15274.79665287787</v>
       </c>
       <c r="H4" t="n">
-        <v>17445.5225022092</v>
+        <v>16846.75585023192</v>
       </c>
       <c r="I4" t="n">
-        <v>17445.5225022092</v>
+        <v>16846.75585023191</v>
       </c>
       <c r="J4" t="n">
-        <v>17445.5225022092</v>
+        <v>16846.75585023191</v>
       </c>
       <c r="K4" t="n">
-        <v>17445.5225022092</v>
+        <v>16846.75585023192</v>
       </c>
       <c r="L4" t="n">
-        <v>17445.5225022092</v>
+        <v>16846.75585023192</v>
       </c>
       <c r="M4" t="n">
-        <v>17445.5225022092</v>
+        <v>16846.75585023192</v>
       </c>
       <c r="N4" t="n">
-        <v>17445.5225022092</v>
+        <v>16846.75585023192</v>
       </c>
       <c r="O4" t="n">
-        <v>17445.5225022092</v>
+        <v>16846.75585023191</v>
       </c>
       <c r="P4" t="n">
-        <v>17445.5225022092</v>
+        <v>15274.79665287787</v>
       </c>
     </row>
     <row r="5">
@@ -26473,43 +26473,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>33627.6</v>
+        <v>33707.69021107268</v>
       </c>
       <c r="E5" t="n">
-        <v>5118.204831146673</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="F5" t="n">
-        <v>5118.204831146673</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="G5" t="n">
-        <v>5118.204831146673</v>
+        <v>5685.361356880733</v>
       </c>
       <c r="H5" t="n">
-        <v>5118.204831146673</v>
+        <v>6570.255913322591</v>
       </c>
       <c r="I5" t="n">
-        <v>5118.204831146673</v>
+        <v>6570.255913322591</v>
       </c>
       <c r="J5" t="n">
-        <v>5118.204831146673</v>
+        <v>6570.255913322591</v>
       </c>
       <c r="K5" t="n">
-        <v>5118.204831146673</v>
+        <v>6570.255913322591</v>
       </c>
       <c r="L5" t="n">
-        <v>5118.204831146673</v>
+        <v>6570.255913322591</v>
       </c>
       <c r="M5" t="n">
-        <v>5118.204831146673</v>
+        <v>6570.255913322591</v>
       </c>
       <c r="N5" t="n">
-        <v>5118.204831146673</v>
+        <v>6570.255913322591</v>
       </c>
       <c r="O5" t="n">
-        <v>5118.204831146673</v>
+        <v>6570.255913322591</v>
       </c>
       <c r="P5" t="n">
-        <v>5118.204831146673</v>
+        <v>5685.361356880733</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5271.852985680853</v>
+        <v>3999.991936006227</v>
       </c>
       <c r="C6" t="n">
-        <v>5271.852985680838</v>
+        <v>3999.991936006212</v>
       </c>
       <c r="D6" t="n">
-        <v>5271.852985680838</v>
+        <v>1317.958832825883</v>
       </c>
       <c r="E6" t="n">
-        <v>-123686.6879150281</v>
+        <v>-139370.7364751704</v>
       </c>
       <c r="F6" t="n">
-        <v>64936.29905551</v>
+        <v>67202.27519251882</v>
       </c>
       <c r="G6" t="n">
-        <v>64936.29905551</v>
+        <v>67202.27519251882</v>
       </c>
       <c r="H6" t="n">
-        <v>64936.29905551</v>
+        <v>63910.95422864883</v>
       </c>
       <c r="I6" t="n">
-        <v>64936.29905551</v>
+        <v>67837.80481054062</v>
       </c>
       <c r="J6" t="n">
-        <v>64936.29905551</v>
+        <v>67837.80481054061</v>
       </c>
       <c r="K6" t="n">
-        <v>64936.29905551</v>
+        <v>67837.80481054062</v>
       </c>
       <c r="L6" t="n">
-        <v>64936.29905551</v>
+        <v>67837.80481054059</v>
       </c>
       <c r="M6" t="n">
-        <v>64936.29905551</v>
+        <v>67837.80481054062</v>
       </c>
       <c r="N6" t="n">
-        <v>64936.29905551</v>
+        <v>67837.80481054059</v>
       </c>
       <c r="O6" t="n">
-        <v>64936.29905551</v>
+        <v>67837.80481054061</v>
       </c>
       <c r="P6" t="n">
-        <v>64936.29905551</v>
+        <v>67202.27519251882</v>
       </c>
     </row>
   </sheetData>
@@ -26741,43 +26741,43 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="E3" t="n">
-        <v>234.7800381259942</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="F3" t="n">
-        <v>234.7800381259942</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="G3" t="n">
-        <v>234.7800381259942</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="H3" t="n">
-        <v>234.7800381259942</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="I3" t="n">
-        <v>234.7800381259942</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="J3" t="n">
-        <v>234.7800381259942</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="K3" t="n">
-        <v>234.7800381259942</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="L3" t="n">
-        <v>234.7800381259942</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="M3" t="n">
-        <v>234.7800381259942</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="N3" t="n">
-        <v>234.7800381259942</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="O3" t="n">
-        <v>234.7800381259942</v>
+        <v>260.7963925174648</v>
       </c>
       <c r="P3" t="n">
-        <v>234.7800381259942</v>
+        <v>260.7963925174648</v>
       </c>
     </row>
     <row r="4">
@@ -26805,28 +26805,28 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>3.673862893242319</v>
       </c>
       <c r="E3" t="n">
-        <v>234.7800381259942</v>
+        <v>257.1225296242225</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27027,7 +27027,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.01476929806328569</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.1512560737906247</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.5693933635848223</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.253525711498795</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1.878710098517679</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>2.330706004121959</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>2.593359508554916</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2.635322776677227</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>2.488460569060429</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>2.123843523123063</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>1.594918036231644</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>0.9277519194678707</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>0.3365553796171231</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>0.06465260227203316</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>0.001181543845062855</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.007902271128860838</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>0.07631930274452442</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.2720738086033228</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1.276043491891533</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.715797948395859</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>2.002255276817064</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2.05524901609789</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.880151324242605</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>1.508987194773435</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1.008717977782306</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>0.4906339916673424</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>0.1467812203102001</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>0.03185169810273293</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>0.000519886258477687</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.006624998659945164</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>0.05890226081296705</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.1992317778827147</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>0.4683874052581232</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>0.7697043897645381</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>0.9849566189522113</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.038498653576677</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1.013805476753246</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>0.936413446952977</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>0.8012634742900949</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>0.5547532968795902</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>0.2978840306553525</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>0.1154556584646807</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>0.02830681245612933</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>0.0003613635632697367</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H11" t="n">
-        <v>9.666094735508892</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I11" t="n">
-        <v>36.38736651196942</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J11" t="n">
-        <v>80.10718496842655</v>
+        <v>88.98399123388617</v>
       </c>
       <c r="K11" t="n">
-        <v>120.0599046221887</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L11" t="n">
-        <v>148.9449281068053</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M11" t="n">
-        <v>165.7299311340341</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N11" t="n">
-        <v>168.4116146850913</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O11" t="n">
-        <v>159.0263121559844</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P11" t="n">
-        <v>135.7252782213693</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q11" t="n">
-        <v>101.9240315263455</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R11" t="n">
-        <v>59.28844852233964</v>
+        <v>65.8582970511566</v>
       </c>
       <c r="S11" t="n">
-        <v>21.50773917103957</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T11" t="n">
-        <v>4.131656751342872</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U11" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.08387421668903385</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H12" t="n">
-        <v>4.877223056164522</v>
+        <v>5.417676003051488</v>
       </c>
       <c r="I12" t="n">
-        <v>17.38701225744391</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J12" t="n">
-        <v>47.71129057803813</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K12" t="n">
-        <v>81.54619494042197</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L12" t="n">
-        <v>109.6489225228995</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M12" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>120.1520068700076</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P12" t="n">
-        <v>96.43257830122204</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q12" t="n">
-        <v>64.46262480772582</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R12" t="n">
-        <v>31.35420961992052</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S12" t="n">
-        <v>9.380126994939479</v>
+        <v>10.41955398407041</v>
       </c>
       <c r="T12" t="n">
-        <v>2.035498632431968</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H13" t="n">
-        <v>3.764178316183975</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I13" t="n">
-        <v>12.73200600198015</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J13" t="n">
-        <v>29.93253043452224</v>
+        <v>33.24940237062826</v>
       </c>
       <c r="K13" t="n">
-        <v>49.18834241393778</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L13" t="n">
-        <v>62.94414333627064</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M13" t="n">
-        <v>66.36577372797569</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N13" t="n">
-        <v>64.78774396352233</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O13" t="n">
-        <v>59.84196775054031</v>
+        <v>66.47315263707451</v>
       </c>
       <c r="P13" t="n">
-        <v>51.20514142997091</v>
+        <v>56.87926567298936</v>
       </c>
       <c r="Q13" t="n">
-        <v>35.45178575702512</v>
+        <v>39.38025527013719</v>
       </c>
       <c r="R13" t="n">
-        <v>19.03642735362569</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S13" t="n">
-        <v>7.378251362090666</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T13" t="n">
-        <v>1.808960949495364</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H14" t="n">
-        <v>9.666094735508892</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I14" t="n">
-        <v>36.38736651196942</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J14" t="n">
-        <v>80.10718496842655</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K14" t="n">
-        <v>120.0599046221887</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L14" t="n">
-        <v>148.9449281068053</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M14" t="n">
-        <v>165.7299311340341</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N14" t="n">
-        <v>168.4116146850913</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O14" t="n">
-        <v>159.0263121559844</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P14" t="n">
-        <v>135.7252782213693</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q14" t="n">
-        <v>101.9240315263455</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R14" t="n">
-        <v>59.28844852233964</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S14" t="n">
-        <v>21.50773917103957</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T14" t="n">
-        <v>4.131656751342872</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U14" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H15" t="n">
-        <v>4.877223056164522</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I15" t="n">
-        <v>17.38701225744391</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J15" t="n">
-        <v>47.71129057803813</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K15" t="n">
-        <v>81.54619494042197</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L15" t="n">
-        <v>109.6489225228995</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M15" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>120.1520068700076</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P15" t="n">
-        <v>96.43257830122204</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q15" t="n">
-        <v>64.46262480772582</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R15" t="n">
-        <v>31.35420961992052</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S15" t="n">
-        <v>9.380126994939479</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T15" t="n">
-        <v>2.035498632431968</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H16" t="n">
-        <v>3.764178316183975</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I16" t="n">
-        <v>12.73200600198015</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J16" t="n">
-        <v>29.93253043452224</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K16" t="n">
-        <v>49.18834241393778</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L16" t="n">
-        <v>62.94414333627064</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M16" t="n">
-        <v>66.36577372797569</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N16" t="n">
-        <v>64.78774396352233</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O16" t="n">
-        <v>59.84196775054031</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P16" t="n">
-        <v>51.20514142997091</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q16" t="n">
-        <v>35.45178575702512</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R16" t="n">
-        <v>19.03642735362569</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S16" t="n">
-        <v>7.378251362090666</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T16" t="n">
-        <v>1.808960949495364</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H17" t="n">
-        <v>9.666094735508892</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I17" t="n">
-        <v>36.38736651196942</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J17" t="n">
-        <v>80.10718496842655</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K17" t="n">
-        <v>120.0599046221887</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L17" t="n">
-        <v>148.9449281068053</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M17" t="n">
-        <v>165.7299311340341</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N17" t="n">
-        <v>168.4116146850913</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O17" t="n">
-        <v>159.0263121559844</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P17" t="n">
-        <v>135.7252782213693</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q17" t="n">
-        <v>101.9240315263455</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R17" t="n">
-        <v>59.28844852233964</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S17" t="n">
-        <v>21.50773917103957</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T17" t="n">
-        <v>4.131656751342872</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U17" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H18" t="n">
-        <v>4.877223056164522</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I18" t="n">
-        <v>17.38701225744391</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J18" t="n">
-        <v>47.71129057803813</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K18" t="n">
-        <v>81.54619494042197</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L18" t="n">
-        <v>109.6489225228995</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M18" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>120.1520068700076</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P18" t="n">
-        <v>96.43257830122204</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q18" t="n">
-        <v>64.46262480772582</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R18" t="n">
-        <v>31.35420961992052</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S18" t="n">
-        <v>9.380126994939479</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T18" t="n">
-        <v>2.035498632431968</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H19" t="n">
-        <v>3.764178316183975</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I19" t="n">
-        <v>12.73200600198015</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J19" t="n">
-        <v>29.93253043452224</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K19" t="n">
-        <v>49.18834241393778</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L19" t="n">
-        <v>62.94414333627064</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M19" t="n">
-        <v>66.36577372797569</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N19" t="n">
-        <v>64.78774396352233</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O19" t="n">
-        <v>59.84196775054031</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P19" t="n">
-        <v>51.20514142997091</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q19" t="n">
-        <v>35.45178575702512</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R19" t="n">
-        <v>19.03642735362569</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S19" t="n">
-        <v>7.378251362090666</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T19" t="n">
-        <v>1.808960949495364</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H20" t="n">
-        <v>9.666094735508892</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I20" t="n">
-        <v>36.38736651196942</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J20" t="n">
-        <v>80.10718496842655</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K20" t="n">
-        <v>120.0599046221887</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L20" t="n">
-        <v>148.9449281068053</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M20" t="n">
-        <v>165.7299311340341</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N20" t="n">
-        <v>168.4116146850913</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O20" t="n">
-        <v>159.0263121559844</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P20" t="n">
-        <v>135.7252782213693</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q20" t="n">
-        <v>101.9240315263455</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R20" t="n">
-        <v>59.28844852233964</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S20" t="n">
-        <v>21.50773917103957</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T20" t="n">
-        <v>4.131656751342872</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U20" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H21" t="n">
-        <v>4.877223056164522</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I21" t="n">
-        <v>17.38701225744391</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J21" t="n">
-        <v>47.71129057803813</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K21" t="n">
-        <v>81.54619494042197</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L21" t="n">
-        <v>109.6489225228995</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M21" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>145.8958988669165</v>
       </c>
       <c r="O21" t="n">
-        <v>120.1520068700076</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P21" t="n">
-        <v>96.43257830122204</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q21" t="n">
-        <v>64.46262480772582</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R21" t="n">
-        <v>31.35420961992052</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S21" t="n">
-        <v>9.380126994939479</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T21" t="n">
-        <v>2.035498632431968</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H22" t="n">
-        <v>3.764178316183975</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I22" t="n">
-        <v>12.73200600198015</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J22" t="n">
-        <v>29.93253043452224</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K22" t="n">
-        <v>49.18834241393778</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L22" t="n">
-        <v>62.94414333627064</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M22" t="n">
-        <v>66.36577372797569</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N22" t="n">
-        <v>64.78774396352233</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O22" t="n">
-        <v>59.84196775054031</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P22" t="n">
-        <v>51.20514142997091</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q22" t="n">
-        <v>35.45178575702512</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R22" t="n">
-        <v>19.03642735362569</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S22" t="n">
-        <v>7.378251362090666</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T22" t="n">
-        <v>1.808960949495364</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H23" t="n">
-        <v>9.666094735508892</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I23" t="n">
-        <v>36.38736651196942</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J23" t="n">
-        <v>80.10718496842655</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K23" t="n">
-        <v>120.0599046221887</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L23" t="n">
-        <v>148.9449281068053</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M23" t="n">
-        <v>165.7299311340341</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N23" t="n">
-        <v>168.4116146850913</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O23" t="n">
-        <v>159.0263121559844</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P23" t="n">
-        <v>135.7252782213693</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q23" t="n">
-        <v>101.9240315263455</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R23" t="n">
-        <v>59.28844852233964</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S23" t="n">
-        <v>21.50773917103957</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T23" t="n">
-        <v>4.131656751342872</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U23" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H24" t="n">
-        <v>4.877223056164522</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I24" t="n">
-        <v>17.38701225744391</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J24" t="n">
-        <v>47.71129057803813</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K24" t="n">
-        <v>81.54619494042197</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L24" t="n">
-        <v>109.6489225228995</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M24" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>145.8958988669165</v>
       </c>
       <c r="O24" t="n">
-        <v>120.1520068700076</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P24" t="n">
-        <v>96.43257830122204</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q24" t="n">
-        <v>64.46262480772582</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R24" t="n">
-        <v>31.35420961992052</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S24" t="n">
-        <v>9.380126994939479</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T24" t="n">
-        <v>2.035498632431968</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U24" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H25" t="n">
-        <v>3.764178316183975</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I25" t="n">
-        <v>12.73200600198015</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J25" t="n">
-        <v>29.93253043452224</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K25" t="n">
-        <v>49.18834241393778</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L25" t="n">
-        <v>62.94414333627064</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M25" t="n">
-        <v>66.36577372797569</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N25" t="n">
-        <v>64.78774396352233</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O25" t="n">
-        <v>59.84196775054031</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P25" t="n">
-        <v>51.20514142997091</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q25" t="n">
-        <v>35.45178575702512</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R25" t="n">
-        <v>19.03642735362569</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S25" t="n">
-        <v>7.378251362090666</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T25" t="n">
-        <v>1.808960949495364</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U25" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H26" t="n">
-        <v>9.666094735508892</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I26" t="n">
-        <v>36.38736651196942</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J26" t="n">
-        <v>80.10718496842655</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K26" t="n">
-        <v>120.0599046221887</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L26" t="n">
-        <v>148.9449281068053</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M26" t="n">
-        <v>165.7299311340341</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N26" t="n">
-        <v>168.4116146850913</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O26" t="n">
-        <v>159.0263121559844</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P26" t="n">
-        <v>135.7252782213693</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q26" t="n">
-        <v>101.9240315263455</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R26" t="n">
-        <v>59.28844852233964</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S26" t="n">
-        <v>21.50773917103957</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T26" t="n">
-        <v>4.131656751342872</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U26" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H27" t="n">
-        <v>4.877223056164522</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I27" t="n">
-        <v>17.38701225744391</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J27" t="n">
-        <v>47.71129057803813</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K27" t="n">
-        <v>81.54619494042197</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L27" t="n">
-        <v>109.6489225228995</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M27" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>145.8958988669165</v>
       </c>
       <c r="O27" t="n">
-        <v>120.1520068700076</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P27" t="n">
-        <v>96.43257830122204</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q27" t="n">
-        <v>64.46262480772582</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R27" t="n">
-        <v>31.35420961992052</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S27" t="n">
-        <v>9.380126994939479</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T27" t="n">
-        <v>2.035498632431968</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U27" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H28" t="n">
-        <v>3.764178316183975</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I28" t="n">
-        <v>12.73200600198015</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J28" t="n">
-        <v>29.93253043452224</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K28" t="n">
-        <v>49.18834241393778</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L28" t="n">
-        <v>62.94414333627064</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M28" t="n">
-        <v>66.36577372797569</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N28" t="n">
-        <v>64.78774396352233</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O28" t="n">
-        <v>59.84196775054031</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P28" t="n">
-        <v>51.20514142997091</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q28" t="n">
-        <v>35.45178575702512</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R28" t="n">
-        <v>19.03642735362569</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S28" t="n">
-        <v>7.378251362090666</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T28" t="n">
-        <v>1.808960949495364</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U28" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H29" t="n">
-        <v>9.666094735508892</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I29" t="n">
-        <v>36.38736651196942</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J29" t="n">
-        <v>80.10718496842655</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K29" t="n">
-        <v>120.0599046221887</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L29" t="n">
-        <v>148.9449281068053</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M29" t="n">
-        <v>165.7299311340341</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N29" t="n">
-        <v>168.4116146850913</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O29" t="n">
-        <v>159.0263121559844</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P29" t="n">
-        <v>135.7252782213693</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q29" t="n">
-        <v>101.9240315263455</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R29" t="n">
-        <v>59.28844852233964</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S29" t="n">
-        <v>21.50773917103957</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T29" t="n">
-        <v>4.131656751342872</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U29" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H30" t="n">
-        <v>4.877223056164522</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I30" t="n">
-        <v>17.38701225744391</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J30" t="n">
-        <v>47.71129057803813</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K30" t="n">
-        <v>81.54619494042197</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L30" t="n">
-        <v>109.6489225228995</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M30" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>145.8958988669165</v>
       </c>
       <c r="O30" t="n">
-        <v>120.1520068700076</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P30" t="n">
-        <v>96.43257830122204</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q30" t="n">
-        <v>64.46262480772582</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R30" t="n">
-        <v>31.35420961992052</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S30" t="n">
-        <v>9.380126994939479</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T30" t="n">
-        <v>2.035498632431968</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U30" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H31" t="n">
-        <v>3.764178316183975</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I31" t="n">
-        <v>12.73200600198015</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J31" t="n">
-        <v>29.93253043452224</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K31" t="n">
-        <v>49.18834241393778</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L31" t="n">
-        <v>62.94414333627064</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M31" t="n">
-        <v>66.36577372797569</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N31" t="n">
-        <v>64.78774396352233</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O31" t="n">
-        <v>59.84196775054031</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P31" t="n">
-        <v>51.20514142997091</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q31" t="n">
-        <v>35.45178575702512</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R31" t="n">
-        <v>19.03642735362569</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S31" t="n">
-        <v>7.378251362090666</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T31" t="n">
-        <v>1.808960949495364</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U31" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H32" t="n">
-        <v>9.666094735508892</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I32" t="n">
-        <v>36.38736651196942</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J32" t="n">
-        <v>80.10718496842655</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K32" t="n">
-        <v>120.0599046221887</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L32" t="n">
-        <v>148.9449281068053</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M32" t="n">
-        <v>165.7299311340341</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N32" t="n">
-        <v>168.4116146850913</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O32" t="n">
-        <v>159.0263121559844</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P32" t="n">
-        <v>135.7252782213693</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.9240315263455</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R32" t="n">
-        <v>59.28844852233964</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S32" t="n">
-        <v>21.50773917103957</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T32" t="n">
-        <v>4.131656751342872</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U32" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H33" t="n">
-        <v>4.877223056164522</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I33" t="n">
-        <v>17.38701225744391</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J33" t="n">
-        <v>47.71129057803813</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K33" t="n">
-        <v>81.54619494042197</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L33" t="n">
-        <v>109.6489225228995</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M33" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>145.8958988669165</v>
       </c>
       <c r="O33" t="n">
-        <v>120.1520068700076</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P33" t="n">
-        <v>96.43257830122204</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q33" t="n">
-        <v>64.46262480772582</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R33" t="n">
-        <v>31.35420961992052</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S33" t="n">
-        <v>9.380126994939479</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T33" t="n">
-        <v>2.035498632431968</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U33" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H34" t="n">
-        <v>3.764178316183975</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I34" t="n">
-        <v>12.73200600198015</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J34" t="n">
-        <v>29.93253043452224</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K34" t="n">
-        <v>49.18834241393778</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L34" t="n">
-        <v>62.94414333627064</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M34" t="n">
-        <v>66.36577372797569</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N34" t="n">
-        <v>64.78774396352233</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O34" t="n">
-        <v>59.84196775054031</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P34" t="n">
-        <v>51.20514142997091</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q34" t="n">
-        <v>35.45178575702512</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R34" t="n">
-        <v>19.03642735362569</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S34" t="n">
-        <v>7.378251362090666</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T34" t="n">
-        <v>1.808960949495364</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U34" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H35" t="n">
-        <v>9.666094735508892</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I35" t="n">
-        <v>36.38736651196942</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J35" t="n">
-        <v>80.10718496842655</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K35" t="n">
-        <v>120.0599046221887</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L35" t="n">
-        <v>148.9449281068053</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M35" t="n">
-        <v>165.7299311340341</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N35" t="n">
-        <v>168.4116146850913</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O35" t="n">
-        <v>159.0263121559844</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P35" t="n">
-        <v>135.7252782213693</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q35" t="n">
-        <v>101.9240315263455</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R35" t="n">
-        <v>59.28844852233964</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S35" t="n">
-        <v>21.50773917103957</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T35" t="n">
-        <v>4.131656751342872</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U35" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H36" t="n">
-        <v>4.877223056164522</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I36" t="n">
-        <v>17.38701225744391</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J36" t="n">
-        <v>47.71129057803813</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K36" t="n">
-        <v>81.54619494042197</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L36" t="n">
-        <v>109.6489225228995</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M36" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>145.8958988669165</v>
       </c>
       <c r="O36" t="n">
-        <v>120.1520068700076</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P36" t="n">
-        <v>96.43257830122204</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q36" t="n">
-        <v>64.46262480772582</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R36" t="n">
-        <v>31.35420961992052</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S36" t="n">
-        <v>9.380126994939479</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T36" t="n">
-        <v>2.035498632431968</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U36" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H37" t="n">
-        <v>3.764178316183975</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I37" t="n">
-        <v>12.73200600198015</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J37" t="n">
-        <v>29.93253043452224</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K37" t="n">
-        <v>49.18834241393778</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L37" t="n">
-        <v>62.94414333627064</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M37" t="n">
-        <v>66.36577372797569</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N37" t="n">
-        <v>64.78774396352233</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O37" t="n">
-        <v>59.84196775054031</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P37" t="n">
-        <v>51.20514142997091</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q37" t="n">
-        <v>35.45178575702512</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R37" t="n">
-        <v>19.03642735362569</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S37" t="n">
-        <v>7.378251362090666</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T37" t="n">
-        <v>1.808960949495364</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U37" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H38" t="n">
-        <v>9.666094735508892</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I38" t="n">
-        <v>36.38736651196942</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J38" t="n">
-        <v>80.10718496842655</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K38" t="n">
-        <v>120.0599046221887</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L38" t="n">
-        <v>148.9449281068053</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M38" t="n">
-        <v>165.7299311340341</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N38" t="n">
-        <v>168.4116146850913</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O38" t="n">
-        <v>159.0263121559844</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P38" t="n">
-        <v>135.7252782213693</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q38" t="n">
-        <v>101.9240315263455</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R38" t="n">
-        <v>59.28844852233964</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S38" t="n">
-        <v>21.50773917103957</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T38" t="n">
-        <v>4.131656751342872</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U38" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H39" t="n">
-        <v>4.877223056164522</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I39" t="n">
-        <v>17.38701225744391</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J39" t="n">
-        <v>47.71129057803813</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K39" t="n">
-        <v>81.54619494042197</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L39" t="n">
-        <v>109.6489225228995</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M39" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>145.8958988669165</v>
       </c>
       <c r="O39" t="n">
-        <v>120.1520068700076</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P39" t="n">
-        <v>96.43257830122204</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q39" t="n">
-        <v>64.46262480772582</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R39" t="n">
-        <v>31.35420961992052</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S39" t="n">
-        <v>9.380126994939479</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T39" t="n">
-        <v>2.035498632431968</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U39" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H40" t="n">
-        <v>3.764178316183975</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I40" t="n">
-        <v>12.73200600198015</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J40" t="n">
-        <v>29.93253043452224</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K40" t="n">
-        <v>49.18834241393778</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L40" t="n">
-        <v>62.94414333627064</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M40" t="n">
-        <v>66.36577372797569</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N40" t="n">
-        <v>64.78774396352233</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O40" t="n">
-        <v>59.84196775054031</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P40" t="n">
-        <v>51.20514142997091</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q40" t="n">
-        <v>35.45178575702512</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R40" t="n">
-        <v>19.03642735362569</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S40" t="n">
-        <v>7.378251362090666</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T40" t="n">
-        <v>1.808960949495364</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U40" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H41" t="n">
-        <v>9.666094735508892</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I41" t="n">
-        <v>36.38736651196942</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J41" t="n">
-        <v>80.10718496842655</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K41" t="n">
-        <v>120.0599046221887</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L41" t="n">
-        <v>148.9449281068053</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M41" t="n">
-        <v>165.7299311340341</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N41" t="n">
-        <v>168.4116146850913</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O41" t="n">
-        <v>159.0263121559844</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P41" t="n">
-        <v>135.7252782213693</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q41" t="n">
-        <v>101.9240315263455</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R41" t="n">
-        <v>59.28844852233964</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S41" t="n">
-        <v>21.50773917103957</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T41" t="n">
-        <v>4.131656751342872</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U41" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H42" t="n">
-        <v>4.877223056164522</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I42" t="n">
-        <v>17.38701225744391</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J42" t="n">
-        <v>47.71129057803813</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K42" t="n">
-        <v>81.54619494042197</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L42" t="n">
-        <v>109.6489225228995</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M42" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>145.8958988669165</v>
       </c>
       <c r="O42" t="n">
-        <v>120.1520068700076</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P42" t="n">
-        <v>96.43257830122204</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q42" t="n">
-        <v>64.46262480772582</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R42" t="n">
-        <v>31.35420961992052</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S42" t="n">
-        <v>9.380126994939479</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T42" t="n">
-        <v>2.035498632431968</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U42" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H43" t="n">
-        <v>3.764178316183975</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I43" t="n">
-        <v>12.73200600198015</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J43" t="n">
-        <v>29.93253043452224</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K43" t="n">
-        <v>49.18834241393778</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L43" t="n">
-        <v>62.94414333627064</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M43" t="n">
-        <v>66.36577372797569</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N43" t="n">
-        <v>64.78774396352233</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O43" t="n">
-        <v>59.84196775054031</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P43" t="n">
-        <v>51.20514142997091</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q43" t="n">
-        <v>35.45178575702512</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R43" t="n">
-        <v>19.03642735362569</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S43" t="n">
-        <v>7.378251362090666</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T43" t="n">
-        <v>1.808960949495364</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U43" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.9438393492502272</v>
+        <v>1.048427708612923</v>
       </c>
       <c r="H44" t="n">
-        <v>9.666094735508892</v>
+        <v>10.7372102708321</v>
       </c>
       <c r="I44" t="n">
-        <v>36.38736651196942</v>
+        <v>40.41950923629976</v>
       </c>
       <c r="J44" t="n">
-        <v>80.10718496842655</v>
+        <v>88.98399123388616</v>
       </c>
       <c r="K44" t="n">
-        <v>120.0599046221887</v>
+        <v>133.3639361394712</v>
       </c>
       <c r="L44" t="n">
-        <v>148.9449281068053</v>
+        <v>165.449755626934</v>
       </c>
       <c r="M44" t="n">
-        <v>165.7299311340341</v>
+        <v>184.0947318899791</v>
       </c>
       <c r="N44" t="n">
-        <v>168.4116146850913</v>
+        <v>187.0735771170756</v>
       </c>
       <c r="O44" t="n">
-        <v>159.0263121559844</v>
+        <v>176.6482740895558</v>
       </c>
       <c r="P44" t="n">
-        <v>135.7252782213693</v>
+        <v>150.7652150331742</v>
       </c>
       <c r="Q44" t="n">
-        <v>101.9240315263455</v>
+        <v>113.2183977184739</v>
       </c>
       <c r="R44" t="n">
-        <v>59.28844852233964</v>
+        <v>65.85829705115658</v>
       </c>
       <c r="S44" t="n">
-        <v>21.50773917103957</v>
+        <v>23.89104641001701</v>
       </c>
       <c r="T44" t="n">
-        <v>4.131656751342872</v>
+        <v>4.589492294453073</v>
       </c>
       <c r="U44" t="n">
-        <v>0.07550714794001816</v>
+        <v>0.08387421668903383</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5049985725728932</v>
+        <v>0.560958278245113</v>
       </c>
       <c r="H45" t="n">
-        <v>4.877223056164522</v>
+        <v>5.417676003051487</v>
       </c>
       <c r="I45" t="n">
-        <v>17.38701225744391</v>
+        <v>19.31369510624622</v>
       </c>
       <c r="J45" t="n">
-        <v>47.71129057803813</v>
+        <v>52.99825557753501</v>
       </c>
       <c r="K45" t="n">
-        <v>81.54619494042197</v>
+        <v>90.58246021995758</v>
       </c>
       <c r="L45" t="n">
-        <v>109.6489225228995</v>
+        <v>121.799296335633</v>
       </c>
       <c r="M45" t="n">
-        <v>127.9551207786668</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>120.1520068700076</v>
+        <v>133.4662443858011</v>
       </c>
       <c r="P45" t="n">
-        <v>96.43257830122204</v>
+        <v>107.1184277115602</v>
       </c>
       <c r="Q45" t="n">
-        <v>64.46262480772582</v>
+        <v>71.60583214932356</v>
       </c>
       <c r="R45" t="n">
-        <v>31.35420961992052</v>
+        <v>34.82862011770975</v>
       </c>
       <c r="S45" t="n">
-        <v>9.380126994939479</v>
+        <v>10.4195539840704</v>
       </c>
       <c r="T45" t="n">
-        <v>2.035498632431968</v>
+        <v>2.261055516259907</v>
       </c>
       <c r="U45" t="n">
-        <v>0.03322359030084825</v>
+        <v>0.03690514988454693</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4233738392435961</v>
+        <v>0.4702885766708382</v>
       </c>
       <c r="H46" t="n">
-        <v>3.764178316183975</v>
+        <v>4.181292981673455</v>
       </c>
       <c r="I46" t="n">
-        <v>12.73200600198015</v>
+        <v>14.14286010570121</v>
       </c>
       <c r="J46" t="n">
-        <v>29.93253043452224</v>
+        <v>33.24940237062825</v>
       </c>
       <c r="K46" t="n">
-        <v>49.18834241393778</v>
+        <v>54.63898190775737</v>
       </c>
       <c r="L46" t="n">
-        <v>62.94414333627064</v>
+        <v>69.91908529886263</v>
       </c>
       <c r="M46" t="n">
-        <v>66.36577372797569</v>
+        <v>73.71987206850237</v>
       </c>
       <c r="N46" t="n">
-        <v>64.78774396352233</v>
+        <v>71.96697828272931</v>
       </c>
       <c r="O46" t="n">
-        <v>59.84196775054031</v>
+        <v>66.47315263707449</v>
       </c>
       <c r="P46" t="n">
-        <v>51.20514142997091</v>
+        <v>56.87926567298935</v>
       </c>
       <c r="Q46" t="n">
-        <v>35.45178575702512</v>
+        <v>39.38025527013718</v>
       </c>
       <c r="R46" t="n">
-        <v>19.03642735362569</v>
+        <v>21.14588454739968</v>
       </c>
       <c r="S46" t="n">
-        <v>7.378251362090666</v>
+        <v>8.195847286163604</v>
       </c>
       <c r="T46" t="n">
-        <v>1.808960949495364</v>
+        <v>2.009414827593581</v>
       </c>
       <c r="U46" t="n">
-        <v>0.02309311850419617</v>
+        <v>0.02565210418204575</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -36130,16 +36130,16 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>13.96613883273134</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>13.96613883273134</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36282,19 +36282,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>13.96613883273134</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>13.96613883273134</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -36367,13 +36367,13 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36443,19 +36443,19 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>13.96613883273134</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36522,16 +36522,16 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>13.96613883273134</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36601,16 +36601,16 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>13.96613883273134</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36683,16 +36683,16 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>13.96613883273134</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36759,16 +36759,16 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>13.96613883273134</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36829,19 +36829,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>13.96613883273134</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -36914,19 +36914,19 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>13.96613883273134</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36996,16 +36996,16 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>13.96613883273134</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37069,10 +37069,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>13.96613883273134</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -37081,10 +37081,10 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -37154,19 +37154,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>13.96613883273134</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,19 +37227,19 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>13.96613883273134</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -37315,16 +37315,16 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>13.96613883273134</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37394,16 +37394,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>13.96613883273134</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37470,16 +37470,16 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>13.96613883273134</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -37552,13 +37552,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>13.96613883273134</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37628,13 +37628,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>13.96613883273134</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37701,16 +37701,16 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>13.96613883273134</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37780,19 +37780,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>13.96613883273134</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -37865,16 +37865,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>13.96613883273134</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37944,16 +37944,16 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>13.96613883273134</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>14.55418678358319</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
